--- a/biology/Zoologie/Charontidae/Charontidae.xlsx
+++ b/biology/Zoologie/Charontidae/Charontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Charontidae sont une famille d'amblypyges, la seule de la super-famille des Charontoidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Whip spiders of the World (version 1.0) :
 Charon Karsch, 1879
 et placé dans cette famille depuis :
 Catageus Thorell, 1889
-Le genre Stygophrynus a été placé en synonymie avec le genre Catageus dans les Charontidae par Miranda, Giupponi, Prendini et Scharff en 2018[2].
+Le genre Stygophrynus a été placé en synonymie avec le genre Catageus dans les Charontidae par Miranda, Giupponi, Prendini et Scharff en 2018.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1892 : Arachnides. Étude sur les Arthropodes cavernicoles de île Luzon, Voyage de M. E. Simon aux îles Philippines (Mars et avril 1890). Annales de la Société Entomologique de France, vol. 61, p. 35–52 (texte intégral).</t>
         </is>
